--- a/config/excel/SkillBuff.xlsx
+++ b/config/excel/SkillBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A993-0464-4932-A658-AB81D81BF844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8DC23-CA45-44A4-A3C5-60D4E2AE5D4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{87AE09CC-2B15-46C1-A3FA-E105FCC660FA}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="229">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,6 +967,23 @@
   </si>
   <si>
     <t>parameterA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增减益类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDebuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-增益
+1-减益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_loop_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,11 +1350,467 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1371,406 +1844,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1843,44 +1917,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -2022,43 +2058,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AJ31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="C1:AJ31" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{0D147E42-E14C-4A96-8C02-8037616E1D7D}" name="备注" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AK31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="C1:AK31" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="Buff_ID" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{0D147E42-E14C-4A96-8C02-8037616E1D7D}" name="备注" dataDxfId="33"/>
     <tableColumn id="22" xr3:uid="{8D8BEAB1-E54C-43E4-9BE7-95673BF8BA42}" name="Buff名字" dataDxfId="32"/>
     <tableColumn id="23" xr3:uid="{82A72EE8-6D58-4F08-BA8E-C92FBA53BBC3}" name="Buff描述" dataDxfId="31"/>
     <tableColumn id="35" xr3:uid="{09304C24-8E26-485B-A412-9F75E089BDA9}" name="Buff图标" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{2BBF407B-57D8-42A6-91F3-32A4E8232393}" name="Buff飘字" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="26"/>
-    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="25"/>
-    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="24"/>
-    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{888EDC62-C1D3-4E19-9362-1CBDAB8EC07F}" name="同时存在数量" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{B8F64F1E-CB30-4033-A0EA-FEE78593B691}" name="表演插槽" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="15"/>
-    <tableColumn id="43" xr3:uid="{D921FDD5-AEA0-42DA-B68A-BBDA0D73C544}" name="字符串参数" dataDxfId="14"/>
-    <tableColumn id="44" xr3:uid="{5109FD34-F9DF-4251-BB1D-18FE0F212000}" name="Iint类型参数" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{3E189FA1-10E9-452D-A72D-28040F461707}" name="buff半径" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{D58D9C58-BAEB-40BC-AEEC-315E98B2CF74}" name="作用对象_x000a_技能范围内" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="buff的_x000a_触发条件" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_条件关系" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{2BBF407B-57D8-42A6-91F3-32A4E8232393}" name="Buff飘字" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="挂载表现" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{B927D21C-9452-4298-B47F-A07AB34A1F98}" name="挂载位置" dataDxfId="27"/>
+    <tableColumn id="32" xr3:uid="{E897FB2D-71CA-4E92-A987-AE9856949CA6}" name="结束表现" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{9E5A90F0-5AC4-4210-9A4A-230AB6D16847}" name="持续时间" dataDxfId="25"/>
+    <tableColumn id="33" xr3:uid="{A86AF344-9B52-4BAC-B714-B3E32C121054}" name="Buff等级" dataDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{C156CC3B-7632-47C9-B888-8457712705F4}" name="Buff分组_x000a_(自定义)" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{D635C078-D1A0-4B44-9887-19DAAE6EE126}" name="是否_x000a_重置时间" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{C73DD352-3DB5-4D85-A1EB-F88FA26A7C82}" name="层数上限" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{888EDC62-C1D3-4E19-9362-1CBDAB8EC07F}" name="同时存在数量" dataDxfId="20"/>
+    <tableColumn id="31" xr3:uid="{BFA38EEF-8F1F-4E9F-BEF1-CC642AD2E3F1}" name="触发表演" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{B8F64F1E-CB30-4033-A0EA-FEE78593B691}" name="表演插槽" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{B54BD281-55D5-409C-8C01-9B5FCDB17AA6}" name="效果间隔" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率_x000a_(作废)" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{94250C4F-3953-452A-9AA3-4965863D4953}" name="增减益类型" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{079BC280-C590-4811-A7BA-29BBAD00883B}" name="BUFF逻辑_x000a_清除类型" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{D921FDD5-AEA0-42DA-B68A-BBDA0D73C544}" name="字符串参数" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{5109FD34-F9DF-4251-BB1D-18FE0F212000}" name="Iint类型参数" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{95EF2B5C-6D03-4D77-8D93-C7335DFA6CEB}" name="number_x000a_类型参数" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{5DCBD8AD-EC5D-4120-944E-0FB1A02586BA}" name="属性" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{3E189FA1-10E9-452D-A72D-28040F461707}" name="buff半径" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{D58D9C58-BAEB-40BC-AEEC-315E98B2CF74}" name="作用对象_x000a_技能范围内" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="buff的_x000a_触发条件" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_条件关系" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2327,35 +2364,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="10.625" style="2"/>
     <col min="17" max="17" width="12.625" style="2" customWidth="1"/>
-    <col min="18" max="28" width="10.625" style="2"/>
-    <col min="29" max="29" width="10.625" style="9"/>
-    <col min="30" max="31" width="10.625" style="2"/>
-    <col min="32" max="32" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="14.125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="10.625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="10.625" style="2"/>
-    <col min="40" max="40" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.625" style="2"/>
+    <col min="18" max="29" width="10.625" style="2"/>
+    <col min="30" max="30" width="10.625" style="9"/>
+    <col min="31" max="32" width="10.625" style="2"/>
+    <col min="33" max="33" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="14.125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="10.625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.625" style="2" customWidth="1"/>
+    <col min="39" max="40" width="10.625" style="2"/>
+    <col min="41" max="41" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2419,53 +2456,56 @@
       <c r="U1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AF1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="114" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2514,50 +2554,53 @@
       <c r="U2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="X2" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AF2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AI2" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AJ2" s="37" t="s">
+      <c r="AK2" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2616,41 +2659,44 @@
       <c r="U3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
+      <c r="V3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2709,47 +2755,48 @@
       <c r="U4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12" t="s">
+      <c r="V4" s="28"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="13" t="s">
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="AJ4" s="35" t="s">
+      <c r="AK4" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2772,7 +2819,7 @@
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="12"/>
+      <c r="V5" s="28"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -2781,14 +2828,15 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="13"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="33"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2847,41 +2895,44 @@
       <c r="U6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="s">
+      <c r="V6" s="29" t="s">
         <v>12</v>
       </c>
+      <c r="W6" s="12"/>
       <c r="X6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Z6" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="12" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AG6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="AH6" s="13" t="s">
+      <c r="AI6" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AI6" s="13" t="s">
+      <c r="AJ6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AJ6" s="36" t="s">
+      <c r="AK6" s="36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>10001</v>
       </c>
@@ -2916,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="V7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -2942,16 +2993,19 @@
       <c r="AD7" s="2">
         <v>0</v>
       </c>
-      <c r="AE7" s="2" t="str">
-        <f>Z7&amp;","&amp;AA7&amp;","&amp;AB7&amp;","&amp;AC7&amp;","&amp;AD7</f>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="str">
+        <f>AA7&amp;","&amp;AB7&amp;","&amp;AC7&amp;","&amp;AD7&amp;","&amp;AE7</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>10002</v>
       </c>
@@ -2984,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="V8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -3010,16 +3064,19 @@
       <c r="AD8" s="2">
         <v>0</v>
       </c>
-      <c r="AE8" s="2" t="str">
-        <f t="shared" ref="AE8:AE21" si="0">Z8&amp;","&amp;AA8&amp;","&amp;AB8&amp;","&amp;AC8&amp;","&amp;AD8</f>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="str">
+        <f t="shared" ref="AF8:AF21" si="0">AA8&amp;","&amp;AB8&amp;","&amp;AC8&amp;","&amp;AD8&amp;","&amp;AE8</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>10003</v>
       </c>
@@ -3052,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="V9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -3078,16 +3135,19 @@
       <c r="AD9" s="2">
         <v>0</v>
       </c>
-      <c r="AE9" s="2" t="str">
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>20001</v>
       </c>
@@ -3122,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="V10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -3148,16 +3208,19 @@
       <c r="AD10" s="2">
         <v>0</v>
       </c>
-      <c r="AE10" s="2" t="str">
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>20002</v>
       </c>
@@ -3192,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="V11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -3218,16 +3281,19 @@
       <c r="AD11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="2" t="str">
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>20003</v>
       </c>
@@ -3262,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="V12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -3288,16 +3354,19 @@
       <c r="AD12" s="2">
         <v>0</v>
       </c>
-      <c r="AE12" s="2" t="str">
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>11001</v>
       </c>
@@ -3330,11 +3399,11 @@
         <v>3</v>
       </c>
       <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
         <v>3</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
       <c r="X13" s="2">
         <v>0</v>
       </c>
@@ -3356,16 +3425,19 @@
       <c r="AD13" s="2">
         <v>0</v>
       </c>
-      <c r="AE13" s="2" t="str">
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>11002</v>
       </c>
@@ -3398,11 +3470,11 @@
         <v>2</v>
       </c>
       <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
         <v>3</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
       <c r="X14" s="2">
         <v>0</v>
       </c>
@@ -3424,16 +3496,19 @@
       <c r="AD14" s="2">
         <v>0</v>
       </c>
-      <c r="AE14" s="2" t="str">
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>11003</v>
       </c>
@@ -3466,11 +3541,11 @@
         <v>1</v>
       </c>
       <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
         <v>3</v>
       </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
       <c r="X15" s="2">
         <v>0</v>
       </c>
@@ -3492,16 +3567,19 @@
       <c r="AD15" s="2">
         <v>0</v>
       </c>
-      <c r="AE15" s="2" t="str">
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>21001</v>
       </c>
@@ -3534,11 +3612,11 @@
         <v>3</v>
       </c>
       <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
         <v>3</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
       <c r="X16" s="2">
         <v>0</v>
       </c>
@@ -3560,16 +3638,19 @@
       <c r="AD16" s="2">
         <v>0</v>
       </c>
-      <c r="AE16" s="2" t="str">
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>21002</v>
       </c>
@@ -3608,11 +3689,11 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9">
+        <v>1</v>
+      </c>
+      <c r="W17" s="9">
         <v>3</v>
       </c>
-      <c r="W17" s="9">
-        <v>0</v>
-      </c>
       <c r="X17" s="9">
         <v>0</v>
       </c>
@@ -3634,19 +3715,22 @@
       <c r="AD17" s="9">
         <v>0</v>
       </c>
-      <c r="AE17" s="2" t="str">
+      <c r="AE17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AG17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
-      <c r="AJ17" s="10"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="10"/>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>21003</v>
       </c>
@@ -3679,11 +3763,11 @@
         <v>1</v>
       </c>
       <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
         <v>3</v>
       </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
       <c r="X18" s="2">
         <v>0</v>
       </c>
@@ -3705,16 +3789,19 @@
       <c r="AD18" s="2">
         <v>0</v>
       </c>
-      <c r="AE18" s="2" t="str">
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C19" s="11">
         <v>100201</v>
       </c>
@@ -3751,23 +3838,23 @@
         <v>1</v>
       </c>
       <c r="V19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Y19" s="2">
         <v>0</v>
       </c>
       <c r="Z19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="2">
         <v>0.15</v>
       </c>
-      <c r="AA19" s="2">
-        <v>0</v>
-      </c>
       <c r="AB19" s="2">
         <v>0</v>
       </c>
@@ -3777,16 +3864,19 @@
       <c r="AD19" s="2">
         <v>0</v>
       </c>
-      <c r="AE19" s="2" t="str">
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.15,0,0,0,0</v>
       </c>
-      <c r="AF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="4"/>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4"/>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C20" s="11">
         <v>100302</v>
       </c>
@@ -3828,20 +3918,20 @@
         <v>3</v>
       </c>
       <c r="V20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
         <v>401</v>
       </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
       <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
         <v>1003021</v>
       </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
       <c r="AA20" s="2">
         <v>0</v>
       </c>
@@ -3854,22 +3944,25 @@
       <c r="AD20" s="2">
         <v>0</v>
       </c>
-      <c r="AE20" s="2" t="str">
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
       <c r="AG20" s="2">
         <v>0</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
       </c>
-      <c r="AJ20" s="4"/>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C21" s="11">
         <v>100402</v>
       </c>
@@ -3910,20 +4003,20 @@
         <v>5</v>
       </c>
       <c r="V21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
         <v>401</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
       <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
         <v>1004021</v>
       </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
       <c r="AA21" s="2">
         <v>0</v>
       </c>
@@ -3936,22 +4029,25 @@
       <c r="AD21" s="2">
         <v>0</v>
       </c>
-      <c r="AE21" s="2" t="str">
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
       <c r="AG21" s="2">
         <v>0</v>
       </c>
       <c r="AH21" s="2">
         <v>0</v>
       </c>
-      <c r="AJ21" s="4"/>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4"/>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C22" s="11">
         <v>200302</v>
       </c>
@@ -3969,7 +4065,7 @@
         <v>207</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>105</v>
@@ -3993,20 +4089,20 @@
         <v>3</v>
       </c>
       <c r="V22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
         <v>401</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
       <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
         <v>2003021</v>
       </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
       <c r="AA22" s="2">
         <v>0</v>
       </c>
@@ -4019,22 +4115,25 @@
       <c r="AD22" s="2">
         <v>0</v>
       </c>
-      <c r="AE22" s="2" t="str">
-        <f t="shared" ref="AE22:AE27" si="1">Z22&amp;","&amp;AA22&amp;","&amp;AB22&amp;","&amp;AC22&amp;","&amp;AD22</f>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="str">
+        <f t="shared" ref="AF22:AF27" si="1">AA22&amp;","&amp;AB22&amp;","&amp;AC22&amp;","&amp;AD22&amp;","&amp;AE22</f>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF22" s="2">
-        <v>0</v>
-      </c>
       <c r="AG22" s="2">
         <v>0</v>
       </c>
       <c r="AH22" s="2">
         <v>0</v>
       </c>
-      <c r="AJ22" s="4"/>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C23" s="11">
         <v>200502</v>
       </c>
@@ -4076,11 +4175,11 @@
         <v>1</v>
       </c>
       <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
         <v>3</v>
       </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
       <c r="X23" s="2">
         <v>0</v>
       </c>
@@ -4102,22 +4201,25 @@
       <c r="AD23" s="2">
         <v>0</v>
       </c>
-      <c r="AE23" s="2" t="str">
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
       <c r="AH23" s="2">
         <v>0</v>
       </c>
-      <c r="AJ23" s="4"/>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C24" s="11">
         <v>800502</v>
       </c>
@@ -4154,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="V24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -4180,22 +4282,25 @@
       <c r="AD24" s="2">
         <v>0</v>
       </c>
-      <c r="AE24" s="2" t="str">
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AG24" s="2">
-        <v>0</v>
-      </c>
       <c r="AH24" s="2">
         <v>0</v>
       </c>
-      <c r="AJ24" s="4"/>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>200101</v>
       </c>
@@ -4234,23 +4339,23 @@
         <v>1</v>
       </c>
       <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
         <v>4</v>
       </c>
-      <c r="W25" s="2">
+      <c r="X25" s="2">
         <v>211</v>
       </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
       <c r="Y25" s="2">
         <v>0</v>
       </c>
       <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
         <v>0.5</v>
       </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
       <c r="AB25" s="2">
         <v>0</v>
       </c>
@@ -4260,22 +4365,25 @@
       <c r="AD25" s="2">
         <v>0</v>
       </c>
-      <c r="AE25" s="2" t="str">
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="AF25" s="2">
-        <v>0</v>
-      </c>
       <c r="AG25" s="2">
         <v>0</v>
       </c>
       <c r="AH25" s="2">
         <v>0</v>
       </c>
-      <c r="AJ25" s="4"/>
+      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="4"/>
     </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>200102</v>
       </c>
@@ -4314,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="V26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -4340,22 +4448,25 @@
       <c r="AD26" s="2">
         <v>0</v>
       </c>
-      <c r="AE26" s="2" t="str">
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AF26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AG26" s="2">
-        <v>0</v>
-      </c>
       <c r="AH26" s="2">
         <v>0</v>
       </c>
-      <c r="AJ26" s="4"/>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4"/>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>200201</v>
       </c>
@@ -4397,20 +4508,20 @@
         <v>1</v>
       </c>
       <c r="V27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
         <v>401</v>
       </c>
-      <c r="X27" s="2">
-        <v>0</v>
-      </c>
       <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
         <v>2201202</v>
       </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
       <c r="AA27" s="2">
         <v>0</v>
       </c>
@@ -4423,19 +4534,22 @@
       <c r="AD27" s="2">
         <v>0</v>
       </c>
-      <c r="AE27" s="2" t="str">
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="AG27" s="2">
-        <v>0</v>
-      </c>
       <c r="AH27" s="2">
         <v>0</v>
       </c>
-      <c r="AJ27" s="4"/>
+      <c r="AI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4444,10 +4558,10 @@
       <c r="H28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="AC28" s="2"/>
-      <c r="AJ28" s="4"/>
+      <c r="AD28" s="2"/>
+      <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -4456,10 +4570,10 @@
       <c r="H29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="AC29" s="2"/>
-      <c r="AJ29" s="4"/>
+      <c r="AD29" s="2"/>
+      <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -4468,10 +4582,10 @@
       <c r="H30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="AC30" s="2"/>
-      <c r="AJ30" s="4"/>
+      <c r="AD30" s="2"/>
+      <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4498,13 +4612,14 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-      <c r="AD31" s="9"/>
+      <c r="AC31" s="9"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
-      <c r="AJ31" s="10"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
